--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Spring.010821.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Spring.010821.xlsx_with_dialog_acts.xlsx
@@ -1021,12 +1021,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1231,12 +1231,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1357,12 +1357,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1777,12 +1777,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1861,12 +1861,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2029,12 +2029,12 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2533,12 +2533,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3833,12 +3833,12 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3959,12 +3959,12 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4085,12 +4085,12 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4505,12 +4505,12 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4631,12 +4631,12 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6059,12 +6059,12 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6731,12 +6731,12 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7403,12 +7403,12 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7529,12 +7529,12 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7865,12 +7865,12 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8289,12 +8289,12 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8751,12 +8751,12 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8793,12 +8793,12 @@
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9007,12 +9007,12 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9049,12 +9049,12 @@
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9175,12 +9175,12 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9677,12 +9677,12 @@
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9841,12 +9841,12 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10525,12 +10525,12 @@
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11005,12 +11005,12 @@
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11445,12 +11445,12 @@
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11565,12 +11565,12 @@
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11925,12 +11925,12 @@
       <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12045,12 +12045,12 @@
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12085,12 +12085,12 @@
       <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12523,12 +12523,12 @@
       <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12803,12 +12803,12 @@
       <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13083,12 +13083,12 @@
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13123,12 +13123,12 @@
       <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13403,12 +13403,12 @@
       <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13443,12 +13443,12 @@
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13643,12 +13643,12 @@
       <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13723,12 +13723,12 @@
       <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
